--- a/VersionRecords/Version 5.2.2/版本Bug和特性计划及评审表v5.2.2_捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.2/版本Bug和特性计划及评审表v5.2.2_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -294,6 +294,24 @@
     <t>李敖</t>
     <rPh sb="0" eb="1">
       <t>li'ao</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账单，新增单次账单时，账单里面费用名称添加时，第二个费用名称会自动覆盖第一个费用名称</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>partner</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -674,7 +692,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +725,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,7 +1045,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="12"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1030,10 +1060,14 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1391,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1544,24 +1578,58 @@
       <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="62"/>
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="61">
+        <v>42374</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="61">
+        <v>42374</v>
+      </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="59"/>
+      <c r="L3" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="61">
+        <v>42374</v>
+      </c>
+      <c r="Q3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="59">
+        <v>6583</v>
+      </c>
       <c r="S3" s="59"/>
       <c r="T3" s="59"/>
       <c r="U3" s="60"/>
@@ -5245,7 +5313,7 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T9 T13:T1048576 T1:T4 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T9 T13:T1048576 T1:T4 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
